--- a/data/Cup_Richmond1.xlsx
+++ b/data/Cup_Richmond1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e9684d998c4b37e/MADS/SIADS591_592_Milestone1/Milestone_I/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC08731ACC74E170BA263D290A5405E223E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E190BBDF-789D-477C-8A24-554BD45D9C8C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cup_Richmond" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -220,8 +226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +290,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -330,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +376,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,6 +428,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,14 +621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -645,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D2">
         <v>8.1</v>
@@ -654,7 +704,7 @@
         <v>13.1</v>
       </c>
       <c r="F2">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G2">
         <v>115</v>
@@ -678,7 +728,7 @@
         <v>1475</v>
       </c>
       <c r="N2">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="O2">
         <v>334</v>
@@ -696,7 +746,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -743,7 +793,7 @@
         <v>91</v>
       </c>
       <c r="P3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q3">
         <v>1779</v>
@@ -755,7 +805,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -796,7 +846,7 @@
         <v>1298</v>
       </c>
       <c r="N4">
-        <v>76.90000000000001</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="O4">
         <v>97</v>
@@ -808,13 +858,13 @@
         <v>1688</v>
       </c>
       <c r="R4">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="S4">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -861,7 +911,7 @@
         <v>270</v>
       </c>
       <c r="P5">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="Q5">
         <v>1593</v>
@@ -873,7 +923,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -905,7 +955,7 @@
         <v>637</v>
       </c>
       <c r="K6">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="L6">
         <v>31</v>
@@ -914,7 +964,7 @@
         <v>1456</v>
       </c>
       <c r="N6">
-        <v>81.90000000000001</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="O6">
         <v>34</v>
@@ -932,7 +982,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -940,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D7">
         <v>13.9</v>
@@ -964,7 +1014,7 @@
         <v>435</v>
       </c>
       <c r="K7">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L7">
         <v>87</v>
@@ -973,7 +1023,7 @@
         <v>1269</v>
       </c>
       <c r="N7">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="O7">
         <v>156</v>
@@ -991,7 +1041,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +1052,7 @@
         <v>11.7</v>
       </c>
       <c r="D8">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E8">
         <v>12</v>
@@ -1050,7 +1100,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1091,7 +1141,7 @@
         <v>1212</v>
       </c>
       <c r="N9">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="O9">
         <v>12</v>
@@ -1109,7 +1159,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1218,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1229,7 @@
         <v>11.9</v>
       </c>
       <c r="D11">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E11">
         <v>14.4</v>
@@ -1221,13 +1271,13 @@
         <v>1627</v>
       </c>
       <c r="R11">
-        <v>84.90000000000001</v>
+        <v>84.9</v>
       </c>
       <c r="S11">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1235,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D12">
         <v>14.3</v>
@@ -1286,7 +1336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1395,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1436,7 @@
         <v>1071</v>
       </c>
       <c r="N14">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="O14">
         <v>97</v>
@@ -1404,7 +1454,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1513,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1474,10 +1524,10 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E16">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1516,13 +1566,13 @@
         <v>1654</v>
       </c>
       <c r="R16">
-        <v>82.40000000000001</v>
+        <v>82.4</v>
       </c>
       <c r="S16">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1533,13 +1583,13 @@
         <v>19.7</v>
       </c>
       <c r="D17">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E17">
         <v>16.3</v>
       </c>
       <c r="F17">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G17">
         <v>-35</v>
@@ -1581,7 +1631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1595,7 +1645,7 @@
         <v>14.9</v>
       </c>
       <c r="E18">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F18">
         <v>14.7</v>
@@ -1640,7 +1690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1654,7 +1704,7 @@
         <v>26.6</v>
       </c>
       <c r="E19">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F19">
         <v>21.1</v>
@@ -1681,7 +1731,7 @@
         <v>588</v>
       </c>
       <c r="N19">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="O19">
         <v>8</v>
@@ -1693,13 +1743,13 @@
         <v>1670</v>
       </c>
       <c r="R19">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="S19">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1713,10 +1763,10 @@
         <v>13.3</v>
       </c>
       <c r="E20">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F20">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G20">
         <v>-75</v>
@@ -1758,7 +1808,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1790,7 +1840,7 @@
         <v>523</v>
       </c>
       <c r="K21">
-        <v>66.59999999999999</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="L21">
         <v>42</v>
@@ -1817,7 +1867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1828,7 +1878,7 @@
         <v>11.3</v>
       </c>
       <c r="D22">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E22">
         <v>19.7</v>
@@ -1870,13 +1920,13 @@
         <v>1624</v>
       </c>
       <c r="R22">
-        <v>79.90000000000001</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="S22">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1887,13 +1937,13 @@
         <v>23.6</v>
       </c>
       <c r="D23">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E23">
         <v>20.7</v>
       </c>
       <c r="F23">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1929,13 +1979,13 @@
         <v>1751</v>
       </c>
       <c r="R23">
-        <v>65.09999999999999</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="S23">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1994,7 +2044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2058,7 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F25">
         <v>23.6</v>
@@ -2053,7 +2103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2112,7 +2162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2120,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D27">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E27">
         <v>22.7</v>
@@ -2171,7 +2221,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2262,7 @@
         <v>170</v>
       </c>
       <c r="N28">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2230,7 +2280,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -2241,7 +2291,7 @@
         <v>24</v>
       </c>
       <c r="D29">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E29">
         <v>26.1</v>
@@ -2283,13 +2333,13 @@
         <v>1626</v>
       </c>
       <c r="R29">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="S29">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2321,7 +2371,7 @@
         <v>115</v>
       </c>
       <c r="K30">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L30">
         <v>10</v>
@@ -2348,7 +2398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2407,7 +2457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2418,13 +2468,13 @@
         <v>16.3</v>
       </c>
       <c r="D32">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E32">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F32">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G32">
         <v>52</v>
@@ -2466,7 +2516,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2519,13 +2569,13 @@
         <v>1577</v>
       </c>
       <c r="R33">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="S33">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2566,7 +2616,7 @@
         <v>19</v>
       </c>
       <c r="N34">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O34">
         <v>2</v>
@@ -2584,7 +2634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2625,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="N35">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2643,7 +2693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2651,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D36">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="E36">
         <v>27.7</v>
@@ -2702,7 +2752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2761,7 +2811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -2820,7 +2870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2879,7 +2929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -2938,7 +2988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2997,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3050,13 +3100,13 @@
         <v>899</v>
       </c>
       <c r="R42">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -3109,13 +3159,13 @@
         <v>265</v>
       </c>
       <c r="R43">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3147,7 +3197,7 @@
         <v>45</v>
       </c>
       <c r="K44">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="L44">
         <v>6</v>
@@ -3156,7 +3206,7 @@
         <v>74</v>
       </c>
       <c r="N44">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -3168,13 +3218,13 @@
         <v>213</v>
       </c>
       <c r="R44">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3233,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3250,7 +3300,7 @@
         <v>26.7</v>
       </c>
       <c r="F46">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G46">
         <v>-15</v>
@@ -3292,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3351,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -3410,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
